--- a/data/scrapped/sportindindex.xlsx
+++ b/data/scrapped/sportindindex.xlsx
@@ -1,120 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="GW14" sheetId="1" r:id="rId4"/>
+    <sheet name="GW14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GW21" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>sell_buy</t>
-  </si>
-  <si>
-    <t>Arsenal v Wolves</t>
-  </si>
-  <si>
-    <t>1.75 - 1.95</t>
-  </si>
-  <si>
-    <t>Brentford v Luton</t>
-  </si>
-  <si>
-    <t>1 - 1.2</t>
-  </si>
-  <si>
-    <t>Burnley v Sheff Utd</t>
-  </si>
-  <si>
-    <t>0.65 - 0.85</t>
-  </si>
-  <si>
-    <t>Nottingham Forest v Everton</t>
-  </si>
-  <si>
-    <t>0 - 0.2</t>
-  </si>
-  <si>
-    <t>Newcastle v Man Utd</t>
-  </si>
-  <si>
-    <t>0.35 - 0.55</t>
-  </si>
-  <si>
-    <t>Bournemouth v Aston Villa</t>
-  </si>
-  <si>
-    <t>0.3 - 0.5</t>
-  </si>
-  <si>
-    <t>Chelsea v Brighton</t>
-  </si>
-  <si>
-    <t>0.7 - 0.9</t>
-  </si>
-  <si>
-    <t>Liverpool v Fulham</t>
-  </si>
-  <si>
-    <t>West Ham v Crystal Palace</t>
-  </si>
-  <si>
-    <t>Man City v Tottenham</t>
-  </si>
-  <si>
-    <t>1.8 - 2</t>
-  </si>
-  <si>
-    <t>1.7 - 1.9</t>
-  </si>
-  <si>
-    <t>1.05 - 1.25</t>
-  </si>
-  <si>
-    <t>1.6 - 1.8</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -128,33 +70,105 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,248 +358,341 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col width="8.7109375" customWidth="1" min="1" max="1"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8.7109375" customWidth="1" min="4" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sell_buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal v Wolves</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1.75 - 1.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Brentford v Luton</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Burnley v Sheff Utd</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.65 - 0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Nottingham Forest v Everton</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Newcastle v Man Utd</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0.35 - 0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Bournemouth v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.3 - 0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea v Brighton</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0.7 - 0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool v Fulham</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1.75 - 1.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>West Ham v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.35 - 0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Man City v Tottenham</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.8 - 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal v Wolves</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1.7 - 1.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Brentford v Luton</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.05 - 1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Burnley v Sheff Utd</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1.6 - 1.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Nottingham Forest v Everton</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Newcastle v Man Utd</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.35 - 0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Bournemouth v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0.3 - 0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea v Brighton</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0.7 - 0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool v Fulham</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.75 - 1.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>West Ham v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0.35 - 0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Man City v Tottenham</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1.8 - 2</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1568,9 +1675,188 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>sell_buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Burnley v Luton</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.25 - 0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chelsea v Fulham</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9 - 1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Newcastle v Man City</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.85 - 1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Everton v Aston Villa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0 - 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Man Utd v Tottenham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.25 - 0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal v Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.45 - 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brentford v Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.45 - 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sheff Utd v West Ham</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.25 - 0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bournemouth v Liverpool</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.7 - 0.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brighton v Wolves</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.8 - 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>